--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_SearchStatus.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_SearchStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9BC3DA-A18E-4303-8799-1DCAAD788B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DE7A09-0AE3-496F-A370-40158299C8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1840" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="DurationAimedAbility" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,9 @@
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchUnit</t>
   </si>
 </sst>
 </file>
@@ -437,9 +440,9 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,9 +482,9 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,15 +518,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE45B0CE-6FF6-44B7-809B-2A79F034076D}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,6 +549,9 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
